--- a/✈️可视化项目列表.xlsx
+++ b/✈️可视化项目列表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/volat-economy-scrollmagic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smg/Desktop/volat-economy-scrollmagic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4300" windowWidth="41480" windowHeight="22260" tabRatio="500"/>
+    <workbookView xWindow="3560" yWindow="4300" windowWidth="44460" windowHeight="22260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>分镜头</t>
     <rPh sb="0" eb="1">
@@ -69,16 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用数据</t>
-    <rPh sb="0" eb="1">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有航线</t>
     <rPh sb="0" eb="1">
       <t>suo you</t>
@@ -109,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scatterplot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>arcs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,14 +108,6 @@
   </si>
   <si>
     <t>mapboxgl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>histogram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewport Transition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,25 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机场ID+境内航班量+境外航班量</t>
-    <rPh sb="0" eb="1">
-      <t>ji chang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jing nei</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hang bna liang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jing wai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hang ban liang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018年全国机场吞吐量数据</t>
     <rPh sb="4" eb="5">
       <t>nian</t>
@@ -318,6 +277,57 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>cha bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用数据逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>luo ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>histogram</t>
+  </si>
+  <si>
+    <t>scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewport Transition+scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewport Transition+scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewport Transition+scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top30机场ID+境内航班量+境外航班量</t>
+    <rPh sb="5" eb="6">
+      <t>ji chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jing nei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hang bna liang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jing wai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hang ban liang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,14 +674,14 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="237" zoomScalePageLayoutView="237" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -683,25 +693,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -712,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -730,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -738,13 +748,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -764,25 +774,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -790,13 +800,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -816,13 +826,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -842,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -868,13 +878,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -894,13 +904,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -920,13 +930,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -946,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>

--- a/✈️可视化项目列表.xlsx
+++ b/✈️可视化项目列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="4300" windowWidth="44460" windowHeight="22260" tabRatio="500"/>
+    <workbookView xWindow="3760" yWindow="4760" windowWidth="44460" windowHeight="22260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>分镜头</t>
     <rPh sb="0" eb="1">
@@ -328,6 +328,19 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>hang ban liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互式数据可视化（scatterplot+arcs）</t>
+    <rPh sb="0" eb="1">
+      <t>jiao hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu ju ke shi hua</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,8 +370,17 @@
       <color theme="1"/>
       <name val="Helvetica-Narrow"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,8 +393,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -380,11 +407,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -394,9 +437,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -671,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="237" zoomScalePageLayoutView="237" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,37 +921,23 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -927,10 +960,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -953,10 +986,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -977,7 +1010,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:H8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/✈️可视化项目列表.xlsx
+++ b/✈️可视化项目列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="4760" windowWidth="44460" windowHeight="22260" tabRatio="500"/>
+    <workbookView xWindow="2600" yWindow="5020" windowWidth="44460" windowHeight="22260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>分镜头</t>
     <rPh sb="0" eb="1">
@@ -96,10 +96,6 @@
     <rPh sb="3" eb="4">
       <t>xing shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arcs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,25 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>histogram</t>
-  </si>
-  <si>
-    <t>scatterplot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewport Transition+scatterplot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewport Transition+scatterplot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewport Transition+scatterplot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>top30机场ID+境内航班量+境外航班量</t>
     <rPh sb="5" eb="6">
       <t>ji chang</t>
@@ -332,7 +309,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交互式数据可视化（scatterplot+arcs）</t>
+    <t>scatterplot+timeLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在color插值计算的时候把透明度做插值</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cha zhi ji suan de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tou ming du</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cha zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linesLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场中心度TOP10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewport Transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewport Transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewport Transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空镜头，视觉过渡</t>
+    <rPh sb="0" eb="1">
+      <t>kong jing tou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jue guo du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guo du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text+arcs（animation）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互式数据可视化（scatterplot+arcs）/boundle（静态大图）/空缺</t>
     <rPh sb="0" eb="1">
       <t>jiao hu</t>
     </rPh>
@@ -341,6 +388,12 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>shu ju ke shi hua</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jing tai da tu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>kong uqe</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +432,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -399,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -422,12 +483,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -437,13 +545,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
+    <cellStyle name="链接单元格" xfId="2" builtinId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -718,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H8"/>
+    <sheetView tabSelected="1" zoomScale="292" zoomScaleNormal="292" zoomScalePageLayoutView="292" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,22 +863,22 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -772,7 +892,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -787,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -798,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -813,7 +933,10 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -824,62 +947,63 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -896,16 +1020,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -921,55 +1045,55 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -986,16 +1110,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1012,33 +1136,59 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/✈️可视化项目列表.xlsx
+++ b/✈️可视化项目列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="5020" windowWidth="44460" windowHeight="22260" tabRatio="500"/>
+    <workbookView xWindow="6360" yWindow="1760" windowWidth="33680" windowHeight="25560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scatterplot+timeLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在color插值计算的时候把透明度做插值</t>
     <rPh sb="0" eb="1">
       <t>zai</t>
@@ -338,15 +334,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>linesLayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机场中心度TOP10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scatterplot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text+arcs（animation）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交互式数据可视化（scatterplot+arcs）/boundle（静态大图）/空缺</t>
     <rPh sb="0" eb="1">
       <t>jiao hu</t>
@@ -395,6 +379,22 @@
     <rPh sb="41" eb="42">
       <t>kong uqe</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatterplot(radius)+timeLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatterplot(radius+color)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/icon+arcs(animation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linesLayer(opacity)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -440,8 +440,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +465,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,12 +543,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -550,6 +564,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
@@ -560,8 +575,9 @@
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
     <cellStyle name="链接单元格" xfId="2" builtinId="24"/>
   </cellStyles>
@@ -841,7 +857,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="292" zoomScaleNormal="292" zoomScalePageLayoutView="292" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,11 +901,11 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -914,11 +930,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -936,18 +952,18 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -970,7 +986,7 @@
         <v>3.5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>38</v>
@@ -989,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1000,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1026,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1052,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1071,16 +1087,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">

--- a/✈️可视化项目列表.xlsx
+++ b/✈️可视化项目列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1760" windowWidth="33680" windowHeight="25560" tabRatio="500"/>
+    <workbookView xWindow="18440" yWindow="2100" windowWidth="41980" windowHeight="25560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>分镜头</t>
     <rPh sb="0" eb="1">
@@ -79,16 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机场中心度</t>
-    <rPh sb="0" eb="1">
-      <t>ji chang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong xin du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可视化形式</t>
     <rPh sb="0" eb="1">
       <t>ke shi hua</t>
@@ -104,45 +94,6 @@
   </si>
   <si>
     <t>mapboxgl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点机场描述1</t>
-    <rPh sb="0" eb="1">
-      <t>zhong dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji chang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>miao shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点机场描述2</t>
-    <rPh sb="0" eb="1">
-      <t>zhong dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji chang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>miao shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重点机场描述3</t>
-    <rPh sb="0" eb="1">
-      <t>zhong dian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji chang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>miao shu</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,35 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机场中心度TOP10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewport Transition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewport Transition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewport Transition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空镜头，视觉过渡</t>
-    <rPh sb="0" eb="1">
-      <t>kong jing tou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi jue guo du</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>guo du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交互式数据可视化（scatterplot+arcs）/boundle（静态大图）/空缺</t>
     <rPh sb="0" eb="1">
       <t>jiao hu</t>
@@ -382,19 +304,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>scatterplot(radius+color)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linesLayer(opacity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年机场中心度</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong xin du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆省机场数量+航线+吞吐量</t>
+    <rPh sb="3" eb="4">
+      <t>ji chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hang x a</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tun tu liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>scatterplot(radius)+timeLine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scatterplot(radius+color)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text/icon+arcs(animation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linesLayer(opacity)</t>
+    <t>Viewport Transition+arcs+scatterplot(radius)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015～2018机场中心度变化率TOP30</t>
+    <rPh sb="14" eb="15">
+      <t>bian hua lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015～2018机场中心度变化率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historgram(animation)+mapboxLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场名+变化率</t>
+    <rPh sb="0" eb="1">
+      <t>ji chang ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian hua lb</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场坐标+航线（OD*2*3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老资历机场TOP10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewport Transition+arcs(animation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波栎社机场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,16 +850,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="292" zoomScaleNormal="292" zoomScalePageLayoutView="292" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" zoomScalePageLayoutView="162" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
@@ -876,25 +872,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -905,10 +901,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -923,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -934,10 +930,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -952,100 +948,89 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1062,16 +1047,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -1087,55 +1072,55 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1152,16 +1137,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -1178,16 +1163,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -1199,12 +1184,38 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/✈️可视化项目列表.xlsx
+++ b/✈️可视化项目列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="2100" windowWidth="41980" windowHeight="25560" tabRatio="500"/>
+    <workbookView xWindow="5720" yWindow="840" windowWidth="41980" windowHeight="25560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" zoomScalePageLayoutView="162" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1113,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1139,7 +1139,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1165,7 +1165,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1191,7 +1191,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">

--- a/✈️可视化项目列表.xlsx
+++ b/✈️可视化项目列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="840" windowWidth="41980" windowHeight="25560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -356,14 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015～2018机场中心度变化率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historgram(animation)+mapboxLayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机场名+变化率</t>
     <rPh sb="0" eb="1">
       <t>ji chang ming</t>
@@ -378,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text/icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老资历机场TOP10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,6 +379,18 @@
   </si>
   <si>
     <t>宁波栎社机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年机场中心度TOP30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>histogram+mapboxLayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +853,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" zoomScalePageLayoutView="162" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+      <selection activeCell="A15" sqref="A15:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
         <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -1050,10 +1050,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1076,10 +1076,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
